--- a/zxw-python-code/0014/student.xlsx
+++ b/zxw-python-code/0014/student.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,45 +367,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>150</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>120</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>90</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>99</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>60</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>66</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>68</v>
       </c>
     </row>
